--- a/data1.xlsx
+++ b/data1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chlzh\WPSDrive\1644525312\WPS企业云盘\北京师范大学\我的企业文档\大模型评测24-25\人工打分\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chlzh\WPSDrive\1644525312\WPS企业云盘\北京师范大学\我的企业文档\大模型评测24-25\人工打分\agq_score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67215878-A8AC-41F3-B032-DFC0000130E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35737AFB-F0CB-4E9B-BA70-6F01E79143E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9724,6 +9724,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -10145,8 +10146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
